--- a/Code/Results/Cases/Case_1_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.764988901705919</v>
+        <v>1.36818657311801</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3909554737543601</v>
+        <v>0.1540160869351439</v>
       </c>
       <c r="E2">
-        <v>3.336610226877923</v>
+        <v>0.8520184962022483</v>
       </c>
       <c r="F2">
-        <v>7.837038297540545</v>
+        <v>3.155443518393298</v>
       </c>
       <c r="G2">
-        <v>0.0006557991644347127</v>
+        <v>0.002431486114854218</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.320324491579516</v>
+        <v>0.8585112567489368</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.550327599668947</v>
+        <v>0.8819045890216728</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6478303843416029</v>
+        <v>1.314705007570993</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.378792912806148</v>
+        <v>1.278937653627281</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3277146435988101</v>
+        <v>0.1434341466781888</v>
       </c>
       <c r="E3">
-        <v>2.812297337142155</v>
+        <v>0.7408576144380277</v>
       </c>
       <c r="F3">
-        <v>6.599275312390148</v>
+        <v>2.937355339469775</v>
       </c>
       <c r="G3">
-        <v>0.0006788410715390701</v>
+        <v>0.00244324169056885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3284643522011059</v>
+        <v>0.8725010023283737</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.162700719594625</v>
+        <v>0.7992595441351682</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7020732164295396</v>
+        <v>1.331890729450329</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.14876941758655</v>
+        <v>1.22480706340275</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.291796670179707</v>
+        <v>0.1371046108474445</v>
       </c>
       <c r="E4">
-        <v>2.508620069750236</v>
+        <v>0.6727087933125517</v>
       </c>
       <c r="F4">
-        <v>5.89001218256405</v>
+        <v>2.806495658123339</v>
       </c>
       <c r="G4">
-        <v>0.0006928570829081017</v>
+        <v>0.002450810248189074</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.335985276778711</v>
+        <v>0.8817711296233277</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.935696890646852</v>
+        <v>0.7490527470005475</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7362838597409862</v>
+        <v>1.343066689298631</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.056459570057427</v>
+        <v>1.202914322426921</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2777390283688703</v>
+        <v>0.1345660214885243</v>
       </c>
       <c r="E5">
-        <v>2.388398021710373</v>
+        <v>0.6449553458229929</v>
       </c>
       <c r="F5">
-        <v>5.61108777770329</v>
+        <v>2.753910692077255</v>
       </c>
       <c r="G5">
-        <v>0.000698563229112599</v>
+        <v>0.002453983147160446</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3396040443263644</v>
+        <v>0.8857187580388164</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.845372944106174</v>
+        <v>0.7287232051021135</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7504663681333383</v>
+        <v>1.347778055795445</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.04120871291417</v>
+        <v>1.199289007401092</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2754359687369714</v>
+        <v>0.1341469099328236</v>
       </c>
       <c r="E6">
-        <v>2.368622317473097</v>
+        <v>0.6403477348806774</v>
       </c>
       <c r="F6">
-        <v>5.565317278714389</v>
+        <v>2.745223062781008</v>
       </c>
       <c r="G6">
-        <v>0.0006995110833547573</v>
+        <v>0.002454515373107096</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3402363481596176</v>
+        <v>0.886384492879781</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.830491950343117</v>
+        <v>0.7253552150854148</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7528362525827674</v>
+        <v>1.348569867440474</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.147519136205347</v>
+        <v>1.224511141318544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2916049138781887</v>
+        <v>0.1370702114505917</v>
       </c>
       <c r="E7">
-        <v>2.506985633172704</v>
+        <v>0.6723344398210287</v>
       </c>
       <c r="F7">
-        <v>5.886212633393598</v>
+        <v>2.805783509330951</v>
       </c>
       <c r="G7">
-        <v>0.0006929340286282768</v>
+        <v>0.002450852679441275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3360319322810739</v>
+        <v>0.881823681936396</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.934470589199094</v>
+        <v>0.7487780553476</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7364741380383464</v>
+        <v>1.343129592178023</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.630110050455983</v>
+        <v>1.337273388075573</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3684401363531009</v>
+        <v>0.150331716371042</v>
       </c>
       <c r="E8">
-        <v>3.151304334713586</v>
+        <v>0.8136633360409462</v>
       </c>
       <c r="F8">
-        <v>7.397907187698877</v>
+        <v>3.079599026445351</v>
       </c>
       <c r="G8">
-        <v>0.0006637904032946527</v>
+        <v>0.002435466971560117</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3225531613778614</v>
+        <v>0.8631930394434377</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.413990510217332</v>
+        <v>0.853293896723585</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6663555069272249</v>
+        <v>1.32050127969525</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.6554597769358</v>
+        <v>1.563821209404978</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5522384465093921</v>
+        <v>0.1777372727593161</v>
       </c>
       <c r="E9">
-        <v>4.629923884973039</v>
+        <v>1.09204304113976</v>
       </c>
       <c r="F9">
-        <v>10.93698902570591</v>
+        <v>3.641904763410452</v>
       </c>
       <c r="G9">
-        <v>0.0006037908069302552</v>
+        <v>0.002408054711367846</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.321093340983353</v>
+        <v>0.8321071925946839</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.479163444224753</v>
+        <v>1.06275854833649</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5349695914007526</v>
+        <v>1.281068576760745</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.508289402533819</v>
+        <v>1.733756263940222</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.7314405393925938</v>
+        <v>0.1988241522265071</v>
       </c>
       <c r="E10">
-        <v>6.017838812965692</v>
+        <v>1.297916314104526</v>
       </c>
       <c r="F10">
-        <v>14.29463718170194</v>
+        <v>4.07219582920635</v>
       </c>
       <c r="G10">
-        <v>0.0005536804594972997</v>
+        <v>0.002389564823115581</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3461577827787821</v>
+        <v>0.8126606501025435</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.42536622080712</v>
+        <v>1.219763103422963</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4391403846986961</v>
+        <v>1.255098126836629</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.942676071399603</v>
+        <v>1.8118653800326</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8349142941039815</v>
+        <v>0.2086461498382732</v>
       </c>
       <c r="E11">
-        <v>6.80368892240898</v>
+        <v>1.392001735383019</v>
       </c>
       <c r="F11">
-        <v>16.19324859074334</v>
+        <v>4.27206068026635</v>
       </c>
       <c r="G11">
-        <v>0.0005273776929165827</v>
+        <v>0.002381504524631012</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3683312780830761</v>
+        <v>0.8045662546886376</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.934987604950607</v>
+        <v>1.291946544248276</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3938858384555601</v>
+        <v>1.243932866996765</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.118684316033921</v>
+        <v>1.841562334198102</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8797858210952541</v>
+        <v>0.2124003429671291</v>
       </c>
       <c r="E12">
-        <v>7.14182413710455</v>
+        <v>1.427702882526347</v>
       </c>
       <c r="F12">
-        <v>17.0073473491978</v>
+        <v>4.348369373916398</v>
       </c>
       <c r="G12">
-        <v>0.0005164658504317027</v>
+        <v>0.00237850218745761</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3792457603027941</v>
+        <v>0.8016106063863191</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.14806301304327</v>
+        <v>1.319396719696329</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3761077703928635</v>
+        <v>1.239798042791932</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.08012774094675</v>
+        <v>1.835161234072018</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.8697950380987436</v>
+        <v>0.2115902322521208</v>
       </c>
       <c r="E13">
-        <v>7.066660622155155</v>
+        <v>1.42001057635224</v>
       </c>
       <c r="F13">
-        <v>16.82657538883524</v>
+        <v>4.331906659552487</v>
       </c>
       <c r="G13">
-        <v>0.0005188712435760428</v>
+        <v>0.002379146582510851</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3767559186106126</v>
+        <v>0.8022422644013432</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.101029086975359</v>
+        <v>1.313479575310112</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3799772581628389</v>
+        <v>1.24068440647644</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.956878861401606</v>
+        <v>1.814306169177485</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.8384669183639346</v>
+        <v>0.2089543011674948</v>
       </c>
       <c r="E14">
-        <v>6.830513486111983</v>
+        <v>1.394937362878323</v>
       </c>
       <c r="F14">
-        <v>16.25790897985189</v>
+        <v>4.278325949180442</v>
       </c>
       <c r="G14">
-        <v>0.000526503439538067</v>
+        <v>0.002381256523086456</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3691695170462239</v>
+        <v>0.8043208885813158</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.952029896551835</v>
+        <v>1.294202526920515</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3924401687444785</v>
+        <v>1.243590824739712</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.883113847031495</v>
+        <v>1.80154739294494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8201403628377193</v>
+        <v>0.2073443063311231</v>
       </c>
       <c r="E15">
-        <v>6.692033132775975</v>
+        <v>1.379589136129908</v>
       </c>
       <c r="F15">
-        <v>15.92397522015682</v>
+        <v>4.245588454954827</v>
       </c>
       <c r="G15">
-        <v>0.00053103295677908</v>
+        <v>0.002382555408021645</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3648958416855521</v>
+        <v>0.8056084111939228</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.863795424774537</v>
+        <v>1.282410062291035</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3999706309760001</v>
+        <v>1.245383227260156</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.481152772672999</v>
+        <v>1.728668097164814</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7252835747744086</v>
+        <v>0.1981870331531184</v>
       </c>
       <c r="E16">
-        <v>5.970772936538111</v>
+        <v>1.291777232434811</v>
       </c>
       <c r="F16">
-        <v>14.18073771413776</v>
+        <v>4.059219812346441</v>
       </c>
       <c r="G16">
-        <v>0.0005552998820882191</v>
+        <v>0.002390098597604575</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3449895077061953</v>
+        <v>0.8132048872225397</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.394221869691876</v>
+        <v>1.215061606612096</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4420390377405639</v>
+        <v>1.255840851462381</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.248721891280979</v>
+        <v>1.684167227023863</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6738729562305821</v>
+        <v>0.1926293900930602</v>
       </c>
       <c r="E17">
-        <v>5.576236344018213</v>
+        <v>1.238025856290051</v>
       </c>
       <c r="F17">
-        <v>13.22563262030513</v>
+        <v>3.945966683786878</v>
       </c>
       <c r="G17">
-        <v>0.0005690832883610374</v>
+        <v>0.002394815586503698</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3359966344038767</v>
+        <v>0.818058649280637</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.130472518933004</v>
+        <v>1.173944973992093</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4672438392329354</v>
+        <v>1.262422381872007</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.118997985822887</v>
+        <v>1.658647067868742</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6461554522354618</v>
+        <v>0.1894542672562523</v>
       </c>
       <c r="E18">
-        <v>5.362298536535519</v>
+        <v>1.207149535909508</v>
       </c>
       <c r="F18">
-        <v>12.707697821799</v>
+        <v>3.881212647439952</v>
       </c>
       <c r="G18">
-        <v>0.000576718776564622</v>
+        <v>0.002397561728925534</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3317570807086199</v>
+        <v>0.8209210947100019</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.985491455419378</v>
+        <v>1.150367032868814</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4816190214527083</v>
+        <v>1.266268978964987</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.075669591204814</v>
+        <v>1.650019269766631</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6370448821002412</v>
+        <v>0.1883828611274225</v>
       </c>
       <c r="E19">
-        <v>5.291775649794516</v>
+        <v>1.196701899719585</v>
       </c>
       <c r="F19">
-        <v>12.53699583415278</v>
+        <v>3.859353432162663</v>
       </c>
       <c r="G19">
-        <v>0.0005792616275229698</v>
+        <v>0.00239849721882697</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3304641432720672</v>
+        <v>0.8219023686655191</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.937403332994506</v>
+        <v>1.142395994598303</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4864719261070221</v>
+        <v>1.267581863081134</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.273032137502014</v>
+        <v>1.688896578749564</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6791427093580182</v>
+        <v>0.1932187739415383</v>
       </c>
       <c r="E20">
-        <v>5.616809738750476</v>
+        <v>1.243743559955732</v>
       </c>
       <c r="F20">
-        <v>13.32386630883951</v>
+        <v>3.95798248254664</v>
       </c>
       <c r="G20">
-        <v>0.000567648277733208</v>
+        <v>0.0023943100376036</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3368528862135847</v>
+        <v>0.8175346318977077</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.157814179191973</v>
+        <v>1.178314489121362</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4645750815068439</v>
+        <v>1.261715446356519</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.992702502686143</v>
+        <v>1.820428560439609</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8474796100875039</v>
+        <v>0.2097275783388852</v>
       </c>
       <c r="E21">
-        <v>6.898522800443004</v>
+        <v>1.402299902825945</v>
       </c>
       <c r="F21">
-        <v>16.42178858538199</v>
+        <v>4.294046706943618</v>
       </c>
       <c r="G21">
-        <v>0.000524293625166441</v>
+        <v>0.002380635431732195</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.37131663584519</v>
+        <v>0.8037073625128386</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.995131184417062</v>
+        <v>1.299861466359744</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3888026051031517</v>
+        <v>1.242734609939532</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.538480512485364</v>
+        <v>1.907085842569586</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.9952055943304288</v>
+        <v>0.2207208578450093</v>
       </c>
       <c r="E22">
-        <v>8.00564666086467</v>
+        <v>1.506356699334191</v>
       </c>
       <c r="F22">
-        <v>19.07497554097887</v>
+        <v>4.517337797447567</v>
       </c>
       <c r="G22">
-        <v>0.0004896137976213577</v>
+        <v>0.002371989024857895</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4101371982718334</v>
+        <v>0.7953095053600023</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.674727683414005</v>
+        <v>1.379977981168793</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3347757726069105</v>
+        <v>1.230872849642886</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.236676596606856</v>
+        <v>1.860770733859852</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9109559754760426</v>
+        <v>0.2148342710607949</v>
       </c>
       <c r="E23">
-        <v>7.375899311615456</v>
+        <v>1.450776499310024</v>
       </c>
       <c r="F23">
-        <v>17.56951740190783</v>
+        <v>4.397818203655788</v>
       </c>
       <c r="G23">
-        <v>0.0005090472408883545</v>
+        <v>0.002376577348701716</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3872182135451325</v>
+        <v>0.7997326541214349</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.293313038385293</v>
+        <v>1.337154025666621</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.364348402020866</v>
+        <v>1.237154004991105</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.262029593722104</v>
+        <v>1.68675823976406</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6767546681443264</v>
+        <v>0.1929522512194239</v>
       </c>
       <c r="E24">
-        <v>5.598427400315302</v>
+        <v>1.241158505765895</v>
       </c>
       <c r="F24">
-        <v>13.27936014471749</v>
+        <v>3.952549031253398</v>
       </c>
       <c r="G24">
-        <v>0.0005682979201663508</v>
+        <v>0.002394538489274391</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3364629324234301</v>
+        <v>0.8177713161443378</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.145432791075677</v>
+        <v>1.176338843186159</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4657819642183796</v>
+        <v>1.262034856327176</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.365697433993887</v>
+        <v>1.501934918412246</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.497198901191183</v>
+        <v>0.1701634738331279</v>
       </c>
       <c r="E25">
-        <v>4.194391672973751</v>
+        <v>1.016541552779131</v>
       </c>
       <c r="F25">
-        <v>9.887748204968204</v>
+        <v>3.486898513492719</v>
       </c>
       <c r="G25">
-        <v>0.0006206454597298144</v>
+        <v>0.002415178372136457</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3179676262089615</v>
+        <v>0.8399262373305731</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.17106784059618</v>
+        <v>1.005573370878125</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5700616868193791</v>
+        <v>1.291208416706894</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_105/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.36818657311801</v>
+        <v>2.76498890170609</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1540160869351439</v>
+        <v>0.3909554737547296</v>
       </c>
       <c r="E2">
-        <v>0.8520184962022483</v>
+        <v>3.336610226878037</v>
       </c>
       <c r="F2">
-        <v>3.155443518393298</v>
+        <v>7.837038297540659</v>
       </c>
       <c r="G2">
-        <v>0.002431486114854218</v>
+        <v>0.0006557991644809914</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8585112567489368</v>
+        <v>0.3203244915795054</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8819045890216728</v>
+        <v>2.550327599668833</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.314705007570993</v>
+        <v>0.6478303843415958</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.278937653627281</v>
+        <v>2.378792912806261</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1434341466781888</v>
+        <v>0.3277146435986396</v>
       </c>
       <c r="E3">
-        <v>0.7408576144380277</v>
+        <v>2.812297337142155</v>
       </c>
       <c r="F3">
-        <v>2.937355339469775</v>
+        <v>6.599275312390176</v>
       </c>
       <c r="G3">
-        <v>0.00244324169056885</v>
+        <v>0.0006788410714840123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8725010023283737</v>
+        <v>0.3284643522011095</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7992595441351682</v>
+        <v>2.16270071959454</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.331890729450329</v>
+        <v>0.7020732164295325</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.22480706340275</v>
+        <v>2.14876941758655</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1371046108474445</v>
+        <v>0.2917966701795081</v>
       </c>
       <c r="E4">
-        <v>0.6727087933125517</v>
+        <v>2.508620069750236</v>
       </c>
       <c r="F4">
-        <v>2.806495658123339</v>
+        <v>5.89001218256405</v>
       </c>
       <c r="G4">
-        <v>0.002450810248189074</v>
+        <v>0.0006928570829615106</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8817711296233277</v>
+        <v>0.3359852767787288</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7490527470005475</v>
+        <v>1.935696890646881</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.343066689298631</v>
+        <v>0.7362838597409862</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.202914322426921</v>
+        <v>2.056459570057143</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1345660214885243</v>
+        <v>0.2777390283688277</v>
       </c>
       <c r="E5">
-        <v>0.6449553458229929</v>
+        <v>2.388398021710401</v>
       </c>
       <c r="F5">
-        <v>2.753910692077255</v>
+        <v>5.61108777770329</v>
       </c>
       <c r="G5">
-        <v>0.002453983147160446</v>
+        <v>0.0006985632292331092</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8857187580388164</v>
+        <v>0.3396040443263644</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7287232051021135</v>
+        <v>1.845372944106145</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.347778055795445</v>
+        <v>0.7504663681333383</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.199289007401092</v>
+        <v>2.041208712914056</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1341469099328236</v>
+        <v>0.275435968736744</v>
       </c>
       <c r="E6">
-        <v>0.6403477348806774</v>
+        <v>2.368622317473125</v>
       </c>
       <c r="F6">
-        <v>2.745223062781008</v>
+        <v>5.565317278714446</v>
       </c>
       <c r="G6">
-        <v>0.002454515373107096</v>
+        <v>0.0006995110834391413</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.886384492879781</v>
+        <v>0.3402363481596318</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7253552150854148</v>
+        <v>1.830491950343145</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.348569867440474</v>
+        <v>0.7528362525827106</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.224511141318544</v>
+        <v>2.147519136205347</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1370702114505917</v>
+        <v>0.2916049138778334</v>
       </c>
       <c r="E7">
-        <v>0.6723344398210287</v>
+        <v>2.506985633172718</v>
       </c>
       <c r="F7">
-        <v>2.805783509330951</v>
+        <v>5.886212633393598</v>
       </c>
       <c r="G7">
-        <v>0.002450852679441275</v>
+        <v>0.0006929340285917615</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.881823681936396</v>
+        <v>0.3360319322810774</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7487780553476</v>
+        <v>1.934470589199123</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.343129592178023</v>
+        <v>0.736474138038389</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.337273388075573</v>
+        <v>2.630110050455983</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.150331716371042</v>
+        <v>0.3684401363529162</v>
       </c>
       <c r="E8">
-        <v>0.8136633360409462</v>
+        <v>3.151304334713586</v>
       </c>
       <c r="F8">
-        <v>3.079599026445351</v>
+        <v>7.397907187698848</v>
       </c>
       <c r="G8">
-        <v>0.002435466971560117</v>
+        <v>0.0006637904034451294</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8631930394434377</v>
+        <v>0.3225531613778756</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.853293896723585</v>
+        <v>2.413990510217303</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.32050127969525</v>
+        <v>0.6663555069272178</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.563821209404978</v>
+        <v>3.655459776935686</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1777372727593161</v>
+        <v>0.5522384465095911</v>
       </c>
       <c r="E9">
-        <v>1.09204304113976</v>
+        <v>4.629923884973095</v>
       </c>
       <c r="F9">
-        <v>3.641904763410452</v>
+        <v>10.93698902570597</v>
       </c>
       <c r="G9">
-        <v>0.002408054711367846</v>
+        <v>0.0006037908067195964</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8321071925946839</v>
+        <v>0.3210933409833601</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.06275854833649</v>
+        <v>3.479163444224753</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.281068576760745</v>
+        <v>0.5349695914008024</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.733756263940222</v>
+        <v>4.508289402534047</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1988241522265071</v>
+        <v>0.7314405393925654</v>
       </c>
       <c r="E10">
-        <v>1.297916314104526</v>
+        <v>6.017838812965806</v>
       </c>
       <c r="F10">
-        <v>4.07219582920635</v>
+        <v>14.29463718170211</v>
       </c>
       <c r="G10">
-        <v>0.002389564823115581</v>
+        <v>0.0005536804594913461</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8126606501025435</v>
+        <v>0.3461577827787679</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.219763103422963</v>
+        <v>4.42536622080712</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.255098126836629</v>
+        <v>0.4391403846987316</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.8118653800326</v>
+        <v>4.942676071399774</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2086461498382732</v>
+        <v>0.8349142941041521</v>
       </c>
       <c r="E11">
-        <v>1.392001735383019</v>
+        <v>6.80368892240898</v>
       </c>
       <c r="F11">
-        <v>4.27206068026635</v>
+        <v>16.19324859074334</v>
       </c>
       <c r="G11">
-        <v>0.002381504524631012</v>
+        <v>0.0005273776929178254</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8045662546886376</v>
+        <v>0.3683312780830761</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.291946544248276</v>
+        <v>4.934987604950607</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.243932866996765</v>
+        <v>0.3938858384555957</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.841562334198102</v>
+        <v>5.118684316033807</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2124003429671291</v>
+        <v>0.8797858210950551</v>
       </c>
       <c r="E12">
-        <v>1.427702882526347</v>
+        <v>7.141824137104578</v>
       </c>
       <c r="F12">
-        <v>4.348369373916398</v>
+        <v>17.00734734919786</v>
       </c>
       <c r="G12">
-        <v>0.00237850218745761</v>
+        <v>0.000516465850606804</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8016106063863191</v>
+        <v>0.3792457603028012</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.319396719696329</v>
+        <v>5.148063013043384</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.239798042791932</v>
+        <v>0.3761077703928564</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.835161234072018</v>
+        <v>5.080127740946864</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2115902322521208</v>
+        <v>0.8697950380989141</v>
       </c>
       <c r="E13">
-        <v>1.42001057635224</v>
+        <v>7.066660622155126</v>
       </c>
       <c r="F13">
-        <v>4.331906659552487</v>
+        <v>16.82657538883518</v>
       </c>
       <c r="G13">
-        <v>0.002379146582510851</v>
+        <v>0.0005188712435180524</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8022422644013432</v>
+        <v>0.3767559186106126</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.313479575310112</v>
+        <v>5.101029086975359</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.24068440647644</v>
+        <v>0.3799772581628389</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.814306169177485</v>
+        <v>4.956878861401719</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2089543011674948</v>
+        <v>0.8384669183641336</v>
       </c>
       <c r="E14">
-        <v>1.394937362878323</v>
+        <v>6.830513486111897</v>
       </c>
       <c r="F14">
-        <v>4.278325949180442</v>
+        <v>16.25790897985155</v>
       </c>
       <c r="G14">
-        <v>0.002381256523086456</v>
+        <v>0.0005265034395480853</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8043208885813158</v>
+        <v>0.369169517046231</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.294202526920515</v>
+        <v>4.952029896551721</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.243590824739712</v>
+        <v>0.3924401687444998</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.80154739294494</v>
+        <v>4.883113847031495</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2073443063311231</v>
+        <v>0.8201403628381456</v>
       </c>
       <c r="E15">
-        <v>1.379589136129908</v>
+        <v>6.692033132775919</v>
       </c>
       <c r="F15">
-        <v>4.245588454954827</v>
+        <v>15.92397522015671</v>
       </c>
       <c r="G15">
-        <v>0.002382555408021645</v>
+        <v>0.0005310329567219283</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8056084111939228</v>
+        <v>0.3648958416855592</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.282410062291035</v>
+        <v>4.863795424774537</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.245383227260156</v>
+        <v>0.3999706309760072</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.728668097164814</v>
+        <v>4.481152772672829</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1981870331531184</v>
+        <v>0.7252835747745792</v>
       </c>
       <c r="E16">
-        <v>1.291777232434811</v>
+        <v>5.970772936538225</v>
       </c>
       <c r="F16">
-        <v>4.059219812346441</v>
+        <v>14.18073771413788</v>
       </c>
       <c r="G16">
-        <v>0.002390098597604575</v>
+        <v>0.0005552998820248809</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8132048872225397</v>
+        <v>0.3449895077061953</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.215061606612096</v>
+        <v>4.394221869691933</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.255840851462381</v>
+        <v>0.4420390377405568</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.684167227023863</v>
+        <v>4.248721891280866</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1926293900930602</v>
+        <v>0.6738729562306105</v>
       </c>
       <c r="E17">
-        <v>1.238025856290051</v>
+        <v>5.576236344018298</v>
       </c>
       <c r="F17">
-        <v>3.945966683786878</v>
+        <v>13.22563262030508</v>
       </c>
       <c r="G17">
-        <v>0.002394815586503698</v>
+        <v>0.0005690832883632381</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.818058649280637</v>
+        <v>0.3359966344038767</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.173944973992093</v>
+        <v>4.130472518933118</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.262422381872007</v>
+        <v>0.4672438392329354</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.658647067868742</v>
+        <v>4.118997985822887</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1894542672562523</v>
+        <v>0.6461554522356892</v>
       </c>
       <c r="E18">
-        <v>1.207149535909508</v>
+        <v>5.362298536535633</v>
       </c>
       <c r="F18">
-        <v>3.881212647439952</v>
+        <v>12.70769782179923</v>
       </c>
       <c r="G18">
-        <v>0.002397561728925534</v>
+        <v>0.0005767187765603119</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8209210947100019</v>
+        <v>0.3317570807086341</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.150367032868814</v>
+        <v>3.985491455419378</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.266268978964987</v>
+        <v>0.4816190214527438</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.650019269766631</v>
+        <v>4.075669591204758</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1883828611274225</v>
+        <v>0.6370448821004686</v>
       </c>
       <c r="E19">
-        <v>1.196701899719585</v>
+        <v>5.291775649794516</v>
       </c>
       <c r="F19">
-        <v>3.859353432162663</v>
+        <v>12.53699583415289</v>
       </c>
       <c r="G19">
-        <v>0.00239849721882697</v>
+        <v>0.0005792616275401841</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8219023686655191</v>
+        <v>0.3304641432720814</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.142395994598303</v>
+        <v>3.937403332994677</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.267581863081134</v>
+        <v>0.4864719261069652</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.688896578749564</v>
+        <v>4.273032137501957</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1932187739415383</v>
+        <v>0.6791427093586435</v>
       </c>
       <c r="E20">
-        <v>1.243743559955732</v>
+        <v>5.616809738750504</v>
       </c>
       <c r="F20">
-        <v>3.95798248254664</v>
+        <v>13.32386630883957</v>
       </c>
       <c r="G20">
-        <v>0.0023943100376036</v>
+        <v>0.0005676482775774307</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8175346318977077</v>
+        <v>0.3368528862135918</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.178314489121362</v>
+        <v>4.157814179192144</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.261715446356519</v>
+        <v>0.4645750815067728</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.820428560439609</v>
+        <v>4.992702502686086</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2097275783388852</v>
+        <v>0.8474796100872766</v>
       </c>
       <c r="E21">
-        <v>1.402299902825945</v>
+        <v>6.898522800442862</v>
       </c>
       <c r="F21">
-        <v>4.294046706943618</v>
+        <v>16.42178858538188</v>
       </c>
       <c r="G21">
-        <v>0.002380635431732195</v>
+        <v>0.0005242936251709136</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8037073625128386</v>
+        <v>0.3713166358451829</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.299861466359744</v>
+        <v>4.995131184417062</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.242734609939532</v>
+        <v>0.3888026051031588</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.907085842569586</v>
+        <v>5.538480512485421</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2207208578450093</v>
+        <v>0.9952055943306846</v>
       </c>
       <c r="E22">
-        <v>1.506356699334191</v>
+        <v>8.005646660864585</v>
       </c>
       <c r="F22">
-        <v>4.517337797447567</v>
+        <v>19.07497554097864</v>
       </c>
       <c r="G22">
-        <v>0.002371989024857895</v>
+        <v>0.0004896137975411275</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7953095053600023</v>
+        <v>0.4101371982718192</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.379977981168793</v>
+        <v>5.674727683413948</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.230872849642886</v>
+        <v>0.3347757726069673</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.860770733859852</v>
+        <v>5.236676596606912</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2148342710607949</v>
+        <v>0.910955975476071</v>
       </c>
       <c r="E23">
-        <v>1.450776499310024</v>
+        <v>7.375899311615399</v>
       </c>
       <c r="F23">
-        <v>4.397818203655788</v>
+        <v>17.56951740190766</v>
       </c>
       <c r="G23">
-        <v>0.002376577348701716</v>
+        <v>0.0005090472408909248</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7997326541214349</v>
+        <v>0.3872182135451325</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.337154025666621</v>
+        <v>5.293313038385065</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.237154004991105</v>
+        <v>0.3643484020208518</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.68675823976406</v>
+        <v>4.262029593721934</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1929522512194239</v>
+        <v>0.6767546681440706</v>
       </c>
       <c r="E24">
-        <v>1.241158505765895</v>
+        <v>5.598427400315302</v>
       </c>
       <c r="F24">
-        <v>3.952549031253398</v>
+        <v>13.27936014471749</v>
       </c>
       <c r="G24">
-        <v>0.002394538489274391</v>
+        <v>0.0005682979201664384</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8177713161443378</v>
+        <v>0.3364629324234301</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.176338843186159</v>
+        <v>4.145432791075734</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.262034856327176</v>
+        <v>0.4657819642183725</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.501934918412246</v>
+        <v>3.365697433994114</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1701634738331279</v>
+        <v>0.4971989011910125</v>
       </c>
       <c r="E25">
-        <v>1.016541552779131</v>
+        <v>4.194391672973694</v>
       </c>
       <c r="F25">
-        <v>3.486898513492719</v>
+        <v>9.887748204968091</v>
       </c>
       <c r="G25">
-        <v>0.002415178372136457</v>
+        <v>0.000620645459423685</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8399262373305731</v>
+        <v>0.3179676262089757</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.005573370878125</v>
+        <v>3.171067840596152</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.291208416706894</v>
+        <v>0.5700616868193862</v>
       </c>
       <c r="O25">
         <v>0</v>
